--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_281.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_281.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,417 +488,488 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4155405405405406</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_183</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.100111234705228</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
+          <t>[['D', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.49, 47.86)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:51.920000', '0:01:55.360000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1595022624434389</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
-        </is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.153030303030303</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:18.070000', '0:00:19.250000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:17.380000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_65</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2528735632183908</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'F#:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.485, 36.916)]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(84.91, 90.421)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:21.480000', '0:00:52.900000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:12.780000', '0:00:20.500000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09713228492136911</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_82</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1033434650455927</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['Ab', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.98079, 5.421882)]</t>
+          <t>[['A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(60.040123, 71.429511)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:56.690000', '0:01:59.660000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:03.101913', '0:00:07.276092')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66), (7.14, 14.34)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(20.92, 24.02), (11.24, 15.78)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:maj', 'G:maj', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.46, 9.84), (10.46, 12.58)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(65.28, 71.0), (2.56, 21.44)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:10.340000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1066433566433566</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F', 'A:min7', 'D:min7'], ['Bb', 'C', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3576923076923077</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A:min7', 'D:min7'], ['Bb', 'C:maj', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(34.29, 40.03), (40.03, 43.842)]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.563, 8.331), (63.861, 66.732)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1287758346581876</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A'], ['D', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5576923076923077</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb'], ['Ab', 'Eb', 'Eb']]</t>
+          <t>[['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(88.58347, 93.575761), (85.437167, 91.834264)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(17.94, 18.86), (235.66, 239.34)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:04.250000', '0:00:09.179000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
+          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:03.240000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(36.32, 51.92)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -902,189 +978,176 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0903010033444816</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A/3', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab', 'Eb/3']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(86.923922, 92.322562)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4540540540540541</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(128.54, 133.9)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(60.761383, 71.001383)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:57.420000', '0:01:00.320000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3040540540540541</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:7/G', 'D:maj/F#', 'D:maj/A'], ['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(220.96, 232.16), (242.06, 254.26)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(243.02, 244.86), (200.58, 201.82)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G:min/b3', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(64.294, 67.223)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(6.48, 13.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
